--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3133"/>
+  <dimension ref="A1:H3151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -81947,6 +81947,474 @@
       </c>
       <c r="H3133" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3134" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3134" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3134" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3135" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3135" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3135" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3136" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3136" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3137" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3137" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3138" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3138" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3138" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3139" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3139" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3139" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3140" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3140" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3141" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3141" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3142" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3142" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3143" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3143" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3144" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3144" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3144" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3145" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3145" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3145" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3146" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3146" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3147" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3147" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3148" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3148" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3148" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3149" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3149" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3150" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3150" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3151" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3151" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3151" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3151"/>
+  <dimension ref="A1:H3169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -82415,6 +82415,474 @@
       </c>
       <c r="H3151" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3152" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3152" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3153" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3153" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3153" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3153" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3154" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3154" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3154" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3155" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3155" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3156" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3156" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3157" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3157" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3157" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3158" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3159" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3159" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3160" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3160" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3161" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3161" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3161" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3162" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3163" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3163" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3164" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3164" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3164" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3165" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3167" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3167" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3167" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3168" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3169" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3169" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3860" yWindow="760" windowWidth="34560" windowHeight="20520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Filter" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Code Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Filter" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Code Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3169"/>
+  <dimension ref="A1:H3187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -82883,6 +82883,474 @@
       </c>
       <c r="H3169" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3170" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3170" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3171" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3172" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3172" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3173" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3174" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3174" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3174" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3175" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3175" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3176" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3176" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3177" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3177" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3178" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3179" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3179" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3179" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3180" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3180" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3180" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3181" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3181" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3182" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3182" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3182" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3184" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3185" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3185" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3186" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3186" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3187" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3187" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3187"/>
+  <dimension ref="A1:H3205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -83351,6 +83351,474 @@
       </c>
       <c r="H3187" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3188" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3188" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3189" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3189" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3189" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3190" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3190" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3190" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3191" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3191" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3191" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3192" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3192" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3193" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3193" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3193" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3194" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3194" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3195" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3195" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3195" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3195" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3196" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3197" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3197" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3197" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3198" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3198" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3198" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3199" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3199" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3199" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3200" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3200" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3200" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3201" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3201" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3201" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3201" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3202" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3202" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3202" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3202" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3203" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3203" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3203" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3203" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3203" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3204" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3204" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3204" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3205" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3205" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3205" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3205"/>
+  <dimension ref="A1:H3223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -83819,6 +83819,474 @@
       </c>
       <c r="H3205" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3206" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3206" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3206" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3207" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3207" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3207" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3208" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3208" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3208" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3208" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3209" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3209" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3210" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3210" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3210" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3211" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3211" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3212" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3212" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3212" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3212" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3213" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3213" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3213" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3213" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3214" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3214" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3214" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3214" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3215" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3215" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3216" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3216" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3216" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3217" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3217" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3217" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3217" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3218" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3218" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3218" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3218" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3219" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3219" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3220" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3220" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3220" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3221" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3221" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3221" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3222" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3222" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3223" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3223" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3223" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3223" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3223"/>
+  <dimension ref="A1:H3241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -84287,6 +84287,474 @@
       </c>
       <c r="H3223" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3224" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3224" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3224" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3225" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3225" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3225" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3225" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3225" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3226" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3226" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3226" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3227" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3227" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3227" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3228" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3228" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3228" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3228" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3229" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3229" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3229" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3230" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3230" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3231" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3231" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3231" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3231" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3231" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3232" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3232" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3232" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3232" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3233" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3233" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3233" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3233" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3234" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3234" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3234" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3234" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3235" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3235" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3235" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3235" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3235" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3236" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3236" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3236" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3237" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3237" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3238" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3238" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3238" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3238" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3239" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3239" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3239" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3240" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3240" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3240" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3240" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3240" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3241" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3241" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3241" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3241" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3241"/>
+  <dimension ref="A1:H3259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -84755,6 +84755,474 @@
       </c>
       <c r="H3241" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3242" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3242" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3242" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3242" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3243" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3244" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3244" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3244" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3244" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3245" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3245" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3245" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3245" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3246" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3246" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3246" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3246" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3246" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3247" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3247" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3247" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3248" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3248" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3248" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3248" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3249" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3249" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3249" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3249" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3250" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3250" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3250" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3250" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3251" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3251" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3251" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3252" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3252" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3252" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3253" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3253" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3253" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3253" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3254" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3254" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3254" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3255" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3255" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3255" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3255" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3256" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3256" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3256" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3256" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3257" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3257" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3257" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3257" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3257" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3258" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3258" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3258" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3258" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3258" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3258" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3259" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3259" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3259" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3259" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3259"/>
+  <dimension ref="A1:H3277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -85223,6 +85223,474 @@
       </c>
       <c r="H3259" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3260" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3260" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3260" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3260" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3260" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3261" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3261" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3261" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3262" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3262" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3262" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3262" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3262" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3263" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3263" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3263" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3263" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3264" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3264" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3264" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3264" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3265" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3265" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3265" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3265" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3266" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3266" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3266" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3266" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3266" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3267" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3267" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3267" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3267" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3268" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3268" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3268" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3268" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3268" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3269" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3269" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3269" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3270" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3270" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3270" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3270" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3271" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3271" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3271" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3271" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3271" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3272" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3272" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3272" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3272" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3272" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3273" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3273" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3273" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3274" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3274" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3274" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3274" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3275" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3275" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3275" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3275" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3276" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3276" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3277" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3277" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3277" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3277" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3277"/>
+  <dimension ref="A1:H3295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -85691,6 +85691,474 @@
       </c>
       <c r="H3277" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3278" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3278" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3278" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3278" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3278" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3279" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3279" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3279" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3279" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3280" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3280" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3280" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3280" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3281" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3281" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3281" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3281" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3282" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3282" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3282" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3283" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3283" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3283" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3283" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3283" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3284" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3284" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3284" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3284" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3285" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3285" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3285" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3285" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3285" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3286" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3286" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3286" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3286" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3287" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3287" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3287" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3287" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3287" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3288" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3288" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3288" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3288" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3288" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3289" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3289" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3289" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3289" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3289" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3290" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3290" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3290" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3290" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3290" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3291" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3291" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3291" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3291" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3292" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3292" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3292" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3292" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3292" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3293" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3293" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3293" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3293" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3294" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3294" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3294" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3294" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3295" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3295" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3295" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3295" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3295"/>
+  <dimension ref="A1:H3313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -86159,6 +86159,474 @@
       </c>
       <c r="H3295" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3296" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3296" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3296" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3296" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3297" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3297" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3297" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3297" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3298" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3298" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3298" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3298" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3298" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3299" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3299" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3299" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3299" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3300" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3300" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3300" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3300" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3300" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3301" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3301" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3301" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3301" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3302" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3302" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3302" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3302" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3302" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3303" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3303" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3303" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3303" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3303" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3304" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3304" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3305" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3305" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3305" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3306" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3306" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3306" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3306" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3307" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3307" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3307" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3307" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3307" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3308" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3308" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3308" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3308" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3308" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3309" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3309" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3309" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3309" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3310" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3310" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3310" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3310" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3310" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3311" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3311" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3311" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3312" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3312" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3312" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3312" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3312" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3313" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3313" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3313" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3313" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Bundesliga Filter Statistics.xlsx
+++ b/data/Bundesliga Filter Statistics.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3313"/>
+  <dimension ref="A1:H3331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
@@ -86627,6 +86627,474 @@
       </c>
       <c r="H3313" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3314" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3314" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3314" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3314" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3315" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3315" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3315" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3316" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3316" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3316" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3316" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3317" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3317" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3317" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3317" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3318" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3318" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3318" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3319" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3319" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3319" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3319" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3319" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3319" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3320" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3320" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3320" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3320" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3321" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3321" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3321" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3321" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3321" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3321" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3322" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3322" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3322" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3322" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3323" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3323" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3323" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3324" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3324" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3324" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3324" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3324" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3325" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3325" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3325" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3325" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3325" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3326" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3326" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3326" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3326" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3327" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3327" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3327" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3327" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3327" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3327" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3328" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3328" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3328" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3328" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3328" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3328" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3329" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3329" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3329" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3329" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3329" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3330" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3330" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3330" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3330" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3330" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3331" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3331" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3331" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3331" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
